--- a/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>ODII</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,167 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>300</v>
       </c>
       <c r="F8" s="3">
+        <v>600</v>
+      </c>
+      <c r="G8" s="3">
+        <v>300</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
-      </c>
-      <c r="E9" s="3">
-        <v>400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
       </c>
       <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>400</v>
+      </c>
+      <c r="J9" s="3">
         <v>300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +837,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>200</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +903,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +989,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>700</v>
       </c>
       <c r="G17" s="3">
         <v>800</v>
       </c>
       <c r="H17" s="3">
+        <v>700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1074,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,37 +1105,49 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,37 +1175,49 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1245,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1280,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1490,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,37 +1525,49 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1595,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1704,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +1770,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,66 +1840,84 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>300</v>
-      </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,37 +1945,49 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2015,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,16 +2085,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -1870,19 +2109,25 @@
         <v>200</v>
       </c>
       <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2155,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2000</v>
+        <v>6300</v>
       </c>
       <c r="E54" s="3">
         <v>1700</v>
       </c>
       <c r="F54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2224,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1974,28 +2235,34 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2003,13 +2270,13 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2023,66 +2290,84 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2090,14 +2375,14 @@
         <v>600</v>
       </c>
       <c r="E61" s="3">
+        <v>600</v>
+      </c>
+      <c r="F61" s="3">
+        <v>600</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2110,8 +2395,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2430,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2535,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2725,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2865,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>500</v>
+      </c>
+      <c r="F76" s="3">
         <v>800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2935,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3029,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2654,17 +3051,23 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3235,14 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2823,22 +3256,28 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3289,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3390,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3580,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3650,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,104 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -763,52 +770,55 @@
         <v>400</v>
       </c>
       <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
       </c>
       <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -816,16 +826,19 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,17 +926,20 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
@@ -935,8 +955,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
       </c>
       <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1111,43 +1145,49 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-500</v>
       </c>
       <c r="H21" s="3">
         <v>-500</v>
       </c>
       <c r="I21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
+      <c r="L21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,43 +1221,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-500</v>
       </c>
       <c r="H23" s="3">
         <v>-500</v>
       </c>
       <c r="I23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-500</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
       </c>
       <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-500</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
       </c>
       <c r="I27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1531,43 +1601,49 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-500</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
       </c>
       <c r="I33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-500</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
       </c>
       <c r="I35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1785,34 +1878,37 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,22 +1942,25 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -1870,54 +1969,60 @@
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E46" s="3">
         <v>5200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
-      </c>
-      <c r="F46" s="3">
-        <v>800</v>
       </c>
       <c r="G46" s="3">
         <v>800</v>
       </c>
       <c r="H46" s="3">
+        <v>800</v>
+      </c>
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,43 +2056,49 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
       </c>
       <c r="F48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="3">
         <v>900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
       </c>
       <c r="I48" s="3">
+        <v>600</v>
+      </c>
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2103,7 +2223,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -2115,19 +2235,22 @@
         <v>200</v>
       </c>
       <c r="J52" s="3">
+        <v>200</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,34 +2284,37 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E54" s="3">
         <v>6300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2100</v>
       </c>
       <c r="J54" s="3">
         <v>2100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
+      <c r="K54" s="3">
+        <v>2100</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,43 +2356,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2276,10 +2410,10 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2296,78 +2430,87 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>700</v>
       </c>
       <c r="H60" s="3">
         <v>700</v>
       </c>
       <c r="I60" s="3">
+        <v>700</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2381,11 +2524,11 @@
         <v>600</v>
       </c>
       <c r="G61" s="3">
+        <v>600</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2401,8 +2544,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E76" s="3">
         <v>5000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-500</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
       </c>
       <c r="I81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3057,17 +3256,20 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,13 +3455,16 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -3262,22 +3479,25 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3300,34 +3521,37 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3405,34 +3635,37 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>4900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>4600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>ODII</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,173 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>400</v>
       </c>
       <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
       </c>
       <c r="M9" s="3">
+        <v>300</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
@@ -829,16 +839,19 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -862,37 +876,40 @@
         <v>500</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,20 +946,23 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
@@ -958,8 +978,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-500</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
       </c>
       <c r="J18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,13 +1143,14 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1148,46 +1182,52 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-500</v>
       </c>
       <c r="I21" s="3">
         <v>-500</v>
       </c>
       <c r="J21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
       </c>
       <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
       </c>
       <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,13 +1633,16 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1604,46 +1674,52 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
       </c>
       <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
       </c>
       <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
         <v>4000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1881,34 +1974,37 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
       </c>
       <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,25 +2041,28 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
@@ -1972,57 +2071,63 @@
         <v>300</v>
       </c>
       <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E46" s="3">
         <v>4100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>800</v>
       </c>
       <c r="H46" s="3">
         <v>800</v>
       </c>
       <c r="I46" s="3">
+        <v>800</v>
+      </c>
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,8 +2164,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2068,37 +2176,40 @@
         <v>900</v>
       </c>
       <c r="E48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F48" s="3">
         <v>1000</v>
       </c>
       <c r="G48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="3">
         <v>900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
       </c>
       <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2226,7 +2346,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -2238,19 +2358,22 @@
         <v>200</v>
       </c>
       <c r="K52" s="3">
+        <v>200</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,37 +2410,40 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E54" s="3">
         <v>5100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2100</v>
       </c>
       <c r="K54" s="3">
         <v>2100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
+      <c r="L54" s="3">
+        <v>2100</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,46 +2487,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2413,10 +2547,10 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2433,84 +2567,93 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
       </c>
       <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
         <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>700</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
       </c>
       <c r="J60" s="3">
+        <v>700</v>
+      </c>
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2527,11 +2670,11 @@
         <v>600</v>
       </c>
       <c r="H61" s="3">
+        <v>600</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2547,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>4200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
       </c>
       <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3259,17 +3458,20 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,16 +3672,19 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
@@ -3482,22 +3699,25 @@
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,34 +3745,37 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3638,34 +3868,37 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3841,37 +4087,40 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>4900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>ODII</t>
   </si>
@@ -736,7 +736,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
@@ -818,7 +818,7 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F10" s="3">
         <v>-200</v>
@@ -876,7 +876,7 @@
         <v>500</v>
       </c>
       <c r="E12" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
@@ -958,7 +958,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F14" s="3">
         <v>-200</v>
@@ -1050,11 +1050,11 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>900</v>
       </c>
       <c r="E17" s="3">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="F17" s="3">
         <v>1100</v>
@@ -1091,11 +1091,11 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-700</v>
       </c>
       <c r="E18" s="3">
-        <v>-1300</v>
+        <v>-1900</v>
       </c>
       <c r="F18" s="3">
         <v>-900</v>
@@ -1149,8 +1149,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1190,11 +1190,11 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-700</v>
       </c>
       <c r="E21" s="3">
-        <v>-1300</v>
+        <v>-1800</v>
       </c>
       <c r="F21" s="3">
         <v>-900</v>
@@ -1272,11 +1272,11 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>-700</v>
       </c>
       <c r="E23" s="3">
-        <v>-1300</v>
+        <v>-1900</v>
       </c>
       <c r="F23" s="3">
         <v>-900</v>
@@ -1395,11 +1395,11 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
-        <v>-1300</v>
+        <v>-1900</v>
       </c>
       <c r="F26" s="3">
         <v>-900</v>
@@ -1436,11 +1436,11 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-700</v>
       </c>
       <c r="E27" s="3">
-        <v>-1300</v>
+        <v>-1900</v>
       </c>
       <c r="F27" s="3">
         <v>-900</v>
@@ -1641,8 +1641,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1682,11 +1682,11 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-700</v>
       </c>
       <c r="E33" s="3">
-        <v>-1300</v>
+        <v>-1900</v>
       </c>
       <c r="F33" s="3">
         <v>-900</v>
@@ -1764,11 +1764,11 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-700</v>
       </c>
       <c r="E35" s="3">
-        <v>-1300</v>
+        <v>-1900</v>
       </c>
       <c r="F35" s="3">
         <v>-900</v>
@@ -3376,11 +3376,11 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-700</v>
       </c>
       <c r="E81" s="3">
-        <v>-1300</v>
+        <v>-1900</v>
       </c>
       <c r="F81" s="3">
         <v>-900</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>-600</v>
       </c>
       <c r="E89" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="F100" s="3">
         <v>4900</v>
@@ -4169,7 +4169,7 @@
         <v>-600</v>
       </c>
       <c r="E102" s="3">
-        <v>-900</v>
+        <v>3700</v>
       </c>
       <c r="F102" s="3">
         <v>4600</v>

--- a/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,117 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,64 +783,67 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-200</v>
       </c>
       <c r="F10" s="3">
         <v>-200</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
@@ -842,16 +851,19 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +879,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>200</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,22 +965,25 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
         <v>-200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>-200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -981,8 +1000,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -990,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-500</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
       <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,49 +1218,55 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-500</v>
       </c>
       <c r="J21" s="3">
         <v>-500</v>
       </c>
       <c r="K21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
+      <c r="N21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,49 +1306,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-500</v>
       </c>
       <c r="J23" s="3">
         <v>-500</v>
       </c>
       <c r="K23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-500</v>
       </c>
       <c r="J26" s="3">
         <v>-500</v>
       </c>
       <c r="K26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
       </c>
       <c r="J27" s="3">
         <v>-500</v>
       </c>
       <c r="K27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1677,49 +1746,55 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
       </c>
       <c r="J33" s="3">
         <v>-500</v>
       </c>
       <c r="K33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
       </c>
       <c r="J35" s="3">
         <v>-500</v>
       </c>
       <c r="K35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1965,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2051,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1977,34 +2069,37 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,28 +2139,31 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
@@ -2074,60 +2172,66 @@
         <v>300</v>
       </c>
       <c r="L45" s="3">
+        <v>300</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="3">
         <v>3500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>800</v>
       </c>
       <c r="I46" s="3">
         <v>800</v>
       </c>
       <c r="J46" s="3">
+        <v>800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2271,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2179,37 +2286,40 @@
         <v>900</v>
       </c>
       <c r="F48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G48" s="3">
         <v>1000</v>
       </c>
       <c r="H48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I48" s="3">
         <v>900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>600</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
       </c>
       <c r="K48" s="3">
+        <v>600</v>
+      </c>
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2349,7 +2468,7 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -2361,19 +2480,22 @@
         <v>200</v>
       </c>
       <c r="L52" s="3">
+        <v>200</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,40 +2535,43 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E54" s="3">
         <v>4500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2100</v>
       </c>
       <c r="L54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
+      <c r="M54" s="3">
+        <v>2100</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
@@ -2454,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,49 +2617,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2550,10 +2683,10 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2570,8 +2703,11 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2579,40 +2715,43 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
       </c>
       <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2620,45 +2759,48 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>700</v>
       </c>
       <c r="J60" s="3">
         <v>700</v>
       </c>
       <c r="K60" s="3">
+        <v>700</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>600</v>
@@ -2673,11 +2815,11 @@
         <v>600</v>
       </c>
       <c r="I61" s="3">
+        <v>600</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2693,8 +2835,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2879,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3011,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3249,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3425,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
       </c>
       <c r="J81" s="3">
         <v>-500</v>
       </c>
       <c r="K81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3438,11 +3636,11 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -3461,17 +3659,20 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,19 +3888,22 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
@@ -3702,22 +3918,25 @@
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3748,34 +3968,37 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4082,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3871,34 +4100,37 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4320,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4087,40 +4332,43 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>4800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4408,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>ODII</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,131 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>500</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I8" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
       </c>
       <c r="K8" s="3">
+        <v>600</v>
+      </c>
+      <c r="L8" s="3">
+        <v>300</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,84 +800,96 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
-      </c>
-      <c r="J9" s="3">
-        <v>400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>400</v>
       </c>
       <c r="M9" s="3">
+        <v>200</v>
+      </c>
+      <c r="N9" s="3">
+        <v>400</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>300</v>
-      </c>
-      <c r="O9" s="3">
-        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>400</v>
+      </c>
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,28 +1002,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>-200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1003,17 +1043,23 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
+        <v>700</v>
+      </c>
+      <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,13 +1243,15 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1221,52 +1289,64 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,52 +1389,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1397,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,13 +1839,19 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1749,52 +1889,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2072,34 +2258,40 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,96 +2334,114 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
       <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,52 +2484,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>900</v>
+        <v>1700</v>
       </c>
       <c r="E48" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="F48" s="3">
         <v>900</v>
       </c>
       <c r="G48" s="3">
+        <v>900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>900</v>
+      </c>
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2471,10 +2711,10 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -2483,19 +2723,25 @@
         <v>200</v>
       </c>
       <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
+        <v>200</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F54" s="3">
         <v>3800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2000</v>
       </c>
       <c r="J54" s="3">
         <v>1700</v>
       </c>
       <c r="K54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,22 +2878,24 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2642,28 +2904,34 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2686,13 +2954,13 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -2706,96 +2974,114 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2803,10 +3089,10 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G61" s="3">
         <v>600</v>
@@ -2818,14 +3104,14 @@
         <v>600</v>
       </c>
       <c r="J61" s="3">
+        <v>600</v>
+      </c>
+      <c r="K61" s="3">
+        <v>600</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2838,31 +3124,37 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2882,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F76" s="3">
         <v>3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3639,14 +4037,14 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -3662,17 +4060,23 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3900,16 +4334,16 @@
         <v>-800</v>
       </c>
       <c r="E89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
@@ -3921,22 +4355,28 @@
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3971,34 +4413,40 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,16 +4539,22 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4103,34 +4563,40 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4335,40 +4827,46 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>4800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>4600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>ODII</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,143 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -806,73 +813,76 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
-      </c>
-      <c r="O9" s="3">
-        <v>300</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-200</v>
       </c>
       <c r="I10" s="3">
         <v>-200</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
@@ -880,16 +890,19 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
-      </c>
-      <c r="E12" s="3">
-        <v>400</v>
       </c>
       <c r="F12" s="3">
         <v>400</v>
       </c>
       <c r="G12" s="3">
+        <v>400</v>
+      </c>
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>200</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-200</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>-200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1049,8 +1069,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,99 +1161,105 @@
         <v>1300</v>
       </c>
       <c r="E17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-1100</v>
       </c>
       <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-500</v>
       </c>
       <c r="M18" s="3">
         <v>-500</v>
       </c>
       <c r="N18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,13 +1278,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1295,58 +1329,64 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-1300</v>
       </c>
       <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-500</v>
       </c>
       <c r="M21" s="3">
         <v>-500</v>
       </c>
       <c r="N21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R21" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,49 +1447,52 @@
         <v>-1300</v>
       </c>
       <c r="E23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-500</v>
       </c>
       <c r="M23" s="3">
         <v>-500</v>
       </c>
       <c r="N23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,49 +1606,52 @@
         <v>-1300</v>
       </c>
       <c r="E26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-500</v>
       </c>
       <c r="M26" s="3">
         <v>-500</v>
       </c>
       <c r="N26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,49 +1659,52 @@
         <v>-1300</v>
       </c>
       <c r="E27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-500</v>
       </c>
       <c r="M27" s="3">
         <v>-500</v>
       </c>
       <c r="N27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,13 +1912,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,49 +1977,52 @@
         <v>-1300</v>
       </c>
       <c r="E33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-500</v>
       </c>
       <c r="M33" s="3">
         <v>-500</v>
       </c>
       <c r="N33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,104 +2083,110 @@
         <v>-1300</v>
       </c>
       <c r="E35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-500</v>
       </c>
       <c r="M35" s="3">
         <v>-500</v>
       </c>
       <c r="N35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,13 +2330,16 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2264,25 +2357,25 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
+      <c r="P43" s="3">
+        <v>100</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,37 +2436,40 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
@@ -2379,69 +2478,75 @@
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>800</v>
       </c>
       <c r="L46" s="3">
         <v>800</v>
       </c>
       <c r="M46" s="3">
+        <v>800</v>
+      </c>
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,19 +2595,22 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>900</v>
       </c>
       <c r="G48" s="3">
         <v>900</v>
@@ -2511,28 +2619,28 @@
         <v>900</v>
       </c>
       <c r="I48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J48" s="3">
         <v>1000</v>
       </c>
       <c r="K48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L48" s="3">
         <v>900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
       </c>
       <c r="N48" s="3">
+        <v>600</v>
+      </c>
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
-        <v>100</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
+      <c r="P48" s="3">
+        <v>100</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2717,7 +2837,7 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -2729,10 +2849,10 @@
         <v>200</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="P52" s="3">
+        <v>100</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2799,40 +2925,40 @@
         <v>2700</v>
       </c>
       <c r="E54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F54" s="3">
         <v>3500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2100</v>
       </c>
       <c r="O54" s="3">
         <v>2100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
+      <c r="P54" s="3">
+        <v>2100</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,49 +3010,50 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
+      <c r="P57" s="3">
+        <v>100</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>8</v>
@@ -2930,13 +3061,16 @@
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2960,10 +3094,10 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2989,40 +3126,40 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
       </c>
       <c r="L59" s="3">
+        <v>300</v>
+      </c>
+      <c r="M59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
@@ -3030,58 +3167,64 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
+        <v>200</v>
+      </c>
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>700</v>
       </c>
       <c r="M60" s="3">
         <v>700</v>
       </c>
       <c r="N60" s="3">
+        <v>700</v>
+      </c>
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3095,7 +3238,7 @@
         <v>300</v>
       </c>
       <c r="G61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>600</v>
@@ -3110,11 +3253,11 @@
         <v>600</v>
       </c>
       <c r="L61" s="3">
+        <v>600</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3139,11 +3285,11 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3156,8 +3302,8 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="E66" s="3">
         <v>1400</v>
       </c>
       <c r="F66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,49 +4159,52 @@
         <v>-1300</v>
       </c>
       <c r="E81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-500</v>
       </c>
       <c r="M81" s="3">
         <v>-500</v>
       </c>
       <c r="N81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4043,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -4066,17 +4265,20 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,28 +4539,31 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
@@ -4361,22 +4578,25 @@
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,13 +4615,14 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4419,34 +4640,37 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,20 +4772,23 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4569,34 +4799,37 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,13 +5058,16 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4833,40 +5079,43 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>4800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1000</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>-1000</v>
       </c>
       <c r="F102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>ODII</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,162 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L8" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
       </c>
       <c r="N8" s="3">
+        <v>600</v>
+      </c>
+      <c r="O8" s="3">
+        <v>300</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -816,93 +829,105 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
-      </c>
-      <c r="M9" s="3">
-        <v>400</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>400</v>
       </c>
       <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>400</v>
+      </c>
+      <c r="R9" s="3">
         <v>300</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>300</v>
-      </c>
-      <c r="R9" s="3">
-        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +947,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>500</v>
+      </c>
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
       <c r="N12" s="3">
-        <v>200</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,37 +1061,43 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>-200</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1072,17 +1111,23 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
       </c>
       <c r="O17" s="3">
         <v>800</v>
       </c>
       <c r="P17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>800</v>
+      </c>
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,20 +1344,22 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1332,61 +1399,73 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1517,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,20 +2048,26 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2107,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2398,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,19 +2512,25 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2360,34 +2545,40 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
+      <c r="R43" s="3">
+        <v>100</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2630,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,105 +2645,117 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
       </c>
       <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1900</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2807,73 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>900</v>
       </c>
       <c r="I48" s="3">
         <v>900</v>
       </c>
       <c r="J48" s="3">
+        <v>900</v>
+      </c>
+      <c r="K48" s="3">
+        <v>900</v>
+      </c>
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="P48" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
+      <c r="R48" s="3">
+        <v>100</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3043,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2840,10 +3079,10 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
@@ -2852,19 +3091,25 @@
         <v>200</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>200</v>
+      </c>
+      <c r="R52" s="3">
+        <v>100</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>2000</v>
       </c>
       <c r="M54" s="3">
         <v>1700</v>
       </c>
       <c r="N54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,31 +3270,33 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -3044,40 +3305,46 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
@@ -3097,13 +3364,13 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3117,122 +3384,140 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
-      </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
+      <c r="R59" s="3">
+        <v>100</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>4900</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>4700</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
@@ -3241,10 +3526,10 @@
         <v>300</v>
       </c>
       <c r="H61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>600</v>
@@ -3256,14 +3541,14 @@
         <v>600</v>
       </c>
       <c r="M61" s="3">
+        <v>600</v>
+      </c>
+      <c r="N61" s="3">
+        <v>600</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3276,26 +3561,32 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>500</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3305,11 +3596,11 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3329,8 +3620,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F76" s="3">
         <v>200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,13 +4619,15 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4245,13 +4642,13 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4268,17 +4665,23 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,34 +4969,40 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E89" s="3">
         <v>-800</v>
       </c>
       <c r="F89" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="G89" s="3">
         <v>-800</v>
       </c>
       <c r="H89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
@@ -4581,22 +5014,28 @@
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,13 +5055,15 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4631,10 +5072,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4643,34 +5084,40 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5228,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4784,17 +5243,17 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4802,34 +5261,40 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,20 +5546,26 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5082,40 +5573,46 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>4800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5664,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1700</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,58 +762,61 @@
         <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -820,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -835,40 +842,43 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
-      </c>
-      <c r="R9" s="3">
-        <v>300</v>
       </c>
       <c r="S9" s="3">
         <v>300</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,41 +886,41 @@
         <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-200</v>
       </c>
       <c r="L10" s="3">
         <v>-200</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
@@ -918,16 +928,19 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
-      </c>
-      <c r="E12" s="3">
-        <v>500</v>
       </c>
       <c r="F12" s="3">
         <v>500</v>
       </c>
       <c r="G12" s="3">
+        <v>500</v>
+      </c>
+      <c r="H12" s="3">
         <v>600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>400</v>
       </c>
       <c r="I12" s="3">
         <v>400</v>
       </c>
       <c r="J12" s="3">
+        <v>400</v>
+      </c>
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
-      </c>
-      <c r="L12" s="3">
-        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,16 +1084,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1088,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-200</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>-200</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1117,8 +1137,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,67 +1231,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="3">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="F17" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G17" s="3">
         <v>1300</v>
       </c>
       <c r="H17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,58 +1303,61 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-500</v>
       </c>
       <c r="P18" s="3">
         <v>-500</v>
       </c>
       <c r="Q18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,14 +1389,14 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,58 +1451,61 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1300</v>
       </c>
       <c r="G21" s="3">
         <v>-1300</v>
       </c>
       <c r="H21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-500</v>
       </c>
       <c r="P21" s="3">
         <v>-500</v>
       </c>
       <c r="Q21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
+      <c r="T21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U21" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1300</v>
       </c>
       <c r="G23" s="3">
         <v>-1300</v>
       </c>
       <c r="H23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-500</v>
       </c>
       <c r="P23" s="3">
         <v>-500</v>
       </c>
       <c r="Q23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1300</v>
       </c>
       <c r="G26" s="3">
         <v>-1300</v>
       </c>
       <c r="H26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-500</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
       </c>
       <c r="Q26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1300</v>
       </c>
       <c r="G27" s="3">
         <v>-1300</v>
       </c>
       <c r="H27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-500</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
       </c>
       <c r="Q27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,14 +2133,14 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
+        <v>900</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2113,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1300</v>
       </c>
       <c r="G33" s="3">
         <v>-1300</v>
       </c>
       <c r="H33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-500</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
       </c>
       <c r="Q33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1300</v>
       </c>
       <c r="G35" s="3">
         <v>-1300</v>
       </c>
       <c r="H35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-500</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
       </c>
       <c r="Q35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1600</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2527,13 +2620,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2551,25 +2644,25 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
       <c r="P43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
+      <c r="S43" s="3">
+        <v>100</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,13 +2732,16 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2651,31 +2750,31 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
@@ -2684,78 +2783,84 @@
         <v>300</v>
       </c>
       <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
-      </c>
-      <c r="N46" s="3">
-        <v>800</v>
       </c>
       <c r="O46" s="3">
         <v>800</v>
       </c>
       <c r="P46" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1900</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,28 +2918,31 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>900</v>
       </c>
       <c r="J48" s="3">
         <v>900</v>
@@ -2843,28 +2951,28 @@
         <v>900</v>
       </c>
       <c r="L48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M48" s="3">
         <v>1000</v>
       </c>
       <c r="N48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O48" s="3">
         <v>900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>600</v>
       </c>
       <c r="P48" s="3">
         <v>600</v>
       </c>
       <c r="Q48" s="3">
+        <v>600</v>
+      </c>
+      <c r="R48" s="3">
         <v>400</v>
       </c>
-      <c r="R48" s="3">
-        <v>100</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
+      <c r="S48" s="3">
+        <v>100</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3085,7 +3205,7 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
@@ -3097,10 +3217,10 @@
         <v>200</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="S52" s="3">
+        <v>100</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,58 +3290,61 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2700</v>
       </c>
       <c r="G54" s="3">
         <v>2700</v>
       </c>
       <c r="H54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I54" s="3">
         <v>3500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>2100</v>
       </c>
       <c r="R54" s="3">
         <v>2100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
+      <c r="S54" s="3">
+        <v>2100</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,58 +3402,59 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
+      <c r="S57" s="3">
+        <v>100</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>8</v>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3343,11 +3477,11 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
@@ -3370,10 +3504,10 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3399,7 +3536,7 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
@@ -3408,40 +3545,40 @@
         <v>400</v>
       </c>
       <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
       <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
       <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
+        <v>400</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3458,69 +3598,72 @@
         <v>700</v>
       </c>
       <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
+        <v>200</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
-      </c>
-      <c r="O60" s="3">
-        <v>700</v>
       </c>
       <c r="P60" s="3">
         <v>700</v>
       </c>
       <c r="Q60" s="3">
+        <v>700</v>
+      </c>
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>300</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
@@ -3532,7 +3675,7 @@
         <v>300</v>
       </c>
       <c r="J61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K61" s="3">
         <v>600</v>
@@ -3547,11 +3690,11 @@
         <v>600</v>
       </c>
       <c r="O61" s="3">
+        <v>600</v>
+      </c>
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3579,17 +3725,17 @@
         <v>500</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
       </c>
       <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3602,8 +3748,8 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E66" s="3">
         <v>6100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1400</v>
       </c>
       <c r="H66" s="3">
         <v>1400</v>
       </c>
       <c r="I66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1300</v>
       </c>
       <c r="G81" s="3">
         <v>-1300</v>
       </c>
       <c r="H81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-500</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
       </c>
       <c r="Q81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,16 +4819,17 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4648,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4671,17 +4870,20 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4984,28 +5201,28 @@
         <v>-900</v>
       </c>
       <c r="E89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
@@ -5020,22 +5237,25 @@
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
+      <c r="T89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5072,14 +5293,14 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -5090,34 +5311,37 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5249,14 +5479,14 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5267,34 +5497,37 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5561,14 +5807,14 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5579,40 +5825,43 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>4800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>2200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5679,54 +5931,57 @@
         <v>-900</v>
       </c>
       <c r="E102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-1000</v>
       </c>
       <c r="H102" s="3">
         <v>-1000</v>
       </c>
       <c r="I102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1700</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
+      <c r="T102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODII_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>ODII</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,170 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -830,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -845,85 +852,88 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
-      </c>
-      <c r="S9" s="3">
-        <v>300</v>
       </c>
       <c r="T9" s="3">
         <v>300</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V9" s="3">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>-200</v>
       </c>
       <c r="M10" s="3">
         <v>-200</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
@@ -931,16 +941,19 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -972,61 +986,64 @@
         <v>500</v>
       </c>
       <c r="E12" s="3">
+        <v>500</v>
+      </c>
+      <c r="F12" s="3">
         <v>600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>500</v>
       </c>
       <c r="G12" s="3">
         <v>500</v>
       </c>
       <c r="H12" s="3">
+        <v>500</v>
+      </c>
+      <c r="I12" s="3">
         <v>600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>400</v>
       </c>
       <c r="J12" s="3">
         <v>400</v>
       </c>
       <c r="K12" s="3">
+        <v>400</v>
+      </c>
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>200</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
       <c r="V12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1111,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-200</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>-200</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1140,8 +1160,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1258,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1300</v>
       </c>
       <c r="H17" s="3">
         <v>1300</v>
       </c>
       <c r="I17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
-        <v>100</v>
-      </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-500</v>
       </c>
       <c r="Q18" s="3">
         <v>-500</v>
       </c>
       <c r="R18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1392,14 +1426,14 @@
         <v>-300</v>
       </c>
       <c r="F20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1488,64 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1300</v>
       </c>
       <c r="H21" s="3">
         <v>-1300</v>
       </c>
       <c r="I21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-500</v>
       </c>
       <c r="Q21" s="3">
         <v>-500</v>
       </c>
       <c r="R21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="3">
-        <v>0</v>
+      <c r="U21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V21" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1300</v>
       </c>
       <c r="H23" s="3">
         <v>-1300</v>
       </c>
       <c r="I23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-500</v>
       </c>
       <c r="Q23" s="3">
         <v>-500</v>
       </c>
       <c r="R23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1300</v>
       </c>
       <c r="H26" s="3">
         <v>-1300</v>
       </c>
       <c r="I26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-500</v>
       </c>
       <c r="Q26" s="3">
         <v>-500</v>
       </c>
       <c r="R26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1300</v>
       </c>
       <c r="H27" s="3">
         <v>-1300</v>
       </c>
       <c r="I27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-500</v>
       </c>
       <c r="Q27" s="3">
         <v>-500</v>
       </c>
       <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2136,14 +2206,14 @@
         <v>300</v>
       </c>
       <c r="F32" s="3">
+        <v>300</v>
+      </c>
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1300</v>
       </c>
       <c r="H33" s="3">
         <v>-1300</v>
       </c>
       <c r="I33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-500</v>
       </c>
       <c r="Q33" s="3">
         <v>-500</v>
       </c>
       <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1300</v>
       </c>
       <c r="H35" s="3">
         <v>-1300</v>
       </c>
       <c r="I35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-500</v>
       </c>
       <c r="Q35" s="3">
         <v>-500</v>
       </c>
       <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1600</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2623,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2647,25 +2740,25 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
       <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>500</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
+      <c r="T43" s="3">
+        <v>100</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>8</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,17 +2831,20 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
@@ -2753,31 +2852,31 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
@@ -2786,81 +2885,87 @@
         <v>300</v>
       </c>
       <c r="S45" s="3">
+        <v>300</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
-      </c>
-      <c r="O46" s="3">
-        <v>800</v>
       </c>
       <c r="P46" s="3">
         <v>800</v>
       </c>
       <c r="Q46" s="3">
+        <v>800</v>
+      </c>
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1900</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,31 +3026,34 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>900</v>
       </c>
       <c r="K48" s="3">
         <v>900</v>
@@ -2954,28 +3062,28 @@
         <v>900</v>
       </c>
       <c r="M48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N48" s="3">
         <v>1000</v>
       </c>
       <c r="O48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P48" s="3">
         <v>900</v>
-      </c>
-      <c r="P48" s="3">
-        <v>600</v>
       </c>
       <c r="Q48" s="3">
         <v>600</v>
       </c>
       <c r="R48" s="3">
+        <v>600</v>
+      </c>
+      <c r="S48" s="3">
         <v>400</v>
       </c>
-      <c r="S48" s="3">
-        <v>100</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
+      <c r="T48" s="3">
+        <v>100</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3208,7 +3328,7 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
@@ -3220,10 +3340,10 @@
         <v>200</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="T52" s="3">
+        <v>100</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,61 +3416,64 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2700</v>
       </c>
       <c r="H54" s="3">
         <v>2700</v>
       </c>
       <c r="I54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J54" s="3">
         <v>3500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1800</v>
-      </c>
-      <c r="R54" s="3">
-        <v>2100</v>
       </c>
       <c r="S54" s="3">
         <v>2100</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
+      <c r="T54" s="3">
+        <v>2100</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>8</v>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,61 +3533,62 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
+      <c r="T57" s="3">
+        <v>100</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>8</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3480,11 +3614,11 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
@@ -3507,10 +3641,10 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -3527,19 +3661,22 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>500</v>
       </c>
       <c r="F59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
@@ -3548,40 +3685,40 @@
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
       <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
       </c>
       <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
+        <v>100</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3601,72 +3741,75 @@
         <v>700</v>
       </c>
       <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
       <c r="L60" s="3">
+        <v>200</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
-      </c>
-      <c r="P60" s="3">
-        <v>700</v>
       </c>
       <c r="Q60" s="3">
         <v>700</v>
       </c>
       <c r="R60" s="3">
+        <v>700</v>
+      </c>
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E61" s="3">
         <v>5000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
@@ -3678,7 +3821,7 @@
         <v>300</v>
       </c>
       <c r="K61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L61" s="3">
         <v>600</v>
@@ -3693,11 +3836,11 @@
         <v>600</v>
       </c>
       <c r="P61" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3713,13 +3856,16 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
@@ -3728,17 +3874,17 @@
         <v>500</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
       </c>
       <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3751,8 +3897,8 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3970,61 +4128,64 @@
         <v>6300</v>
       </c>
       <c r="E66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1400</v>
       </c>
       <c r="I66" s="3">
         <v>1400</v>
       </c>
       <c r="J66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1100</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1300</v>
       </c>
       <c r="H81" s="3">
         <v>-1300</v>
       </c>
       <c r="I81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-500</v>
       </c>
       <c r="Q81" s="3">
         <v>-500</v>
       </c>
       <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4850,10 +5049,10 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4873,17 +5072,20 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,40 +5406,43 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-900</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
         <v>-900</v>
       </c>
       <c r="F89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
@@ -5240,22 +5457,25 @@
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
+      <c r="U89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5296,14 +5517,14 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5314,34 +5535,37 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5482,14 +5712,14 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5500,34 +5730,37 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,26 +6041,29 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5828,40 +6074,43 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>4800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>2200</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-900</v>
+        <v>-400</v>
       </c>
       <c r="E102" s="3">
         <v>-900</v>
       </c>
       <c r="F102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-1000</v>
       </c>
       <c r="I102" s="3">
         <v>-1000</v>
       </c>
       <c r="J102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1700</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
+      <c r="U102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
     </row>
